--- a/DELIVERABLE/EFFORT_LOG/Week16/BSS_EffortLog_HaiTran_Week16.xlsx
+++ b/DELIVERABLE/EFFORT_LOG/Week16/BSS_EffortLog_HaiTran_Week16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CapstonProject\CapstonProject\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CapstonProject\CapstonProject\DELIVERABLE\EFFORT_LOG\Week16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -49,12 +49,30 @@
   <si>
     <t>Actual Time</t>
   </si>
+  <si>
+    <t>Update schedule</t>
+  </si>
+  <si>
+    <t>16/1/2017</t>
+  </si>
+  <si>
+    <t>18/1/2017</t>
+  </si>
+  <si>
+    <t>Update static view</t>
+  </si>
+  <si>
+    <t>19/1/2017</t>
+  </si>
+  <si>
+    <t>Update physical view</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +108,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -105,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,21 +152,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +183,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,32 +507,32 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
-    <col min="9" max="27" width="7.5703125" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="15.140625" style="4"/>
+    <col min="1" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="27" width="7.5703125" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="15.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -516,14 +556,14 @@
     <row r="2" spans="1:27" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -574,55 +614,67 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -646,12 +698,24 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -675,12 +739,24 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -704,12 +780,12 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -733,12 +809,12 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -762,12 +838,12 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -791,12 +867,12 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -820,12 +896,12 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -849,12 +925,12 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -878,12 +954,12 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
